--- a/data/trans_orig/P36A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36A-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>69350</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>54819</v>
+        <v>54899</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>87094</v>
+        <v>87579</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1607726406961556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1270865736718179</v>
+        <v>0.1272710870744446</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2019079879034885</v>
+        <v>0.2030333072560553</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -764,19 +764,19 @@
         <v>50588</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>38828</v>
+        <v>39602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64437</v>
+        <v>64892</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1622652522423239</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1245442923805218</v>
+        <v>0.1270251125775586</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2066870609456809</v>
+        <v>0.2081437236831568</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>110</v>
@@ -785,19 +785,19 @@
         <v>119938</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>102953</v>
+        <v>100169</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>143324</v>
+        <v>145005</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1613988435519416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1385424591384542</v>
+        <v>0.1347956443571478</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1928685848807001</v>
+        <v>0.195131414630677</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>124018</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>106412</v>
+        <v>103066</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146998</v>
+        <v>143016</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2875082111900722</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2466928257977201</v>
+        <v>0.2389370243668735</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3407836726262777</v>
+        <v>0.3315520295845423</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>77</v>
@@ -835,19 +835,19 @@
         <v>88742</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72680</v>
+        <v>72798</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107359</v>
+        <v>104613</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2846449499065019</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2331253187755709</v>
+        <v>0.2335027656723776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.344359917665186</v>
+        <v>0.3355524641376757</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>191</v>
@@ -856,19 +856,19 @@
         <v>212759</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>185938</v>
+        <v>186771</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>237533</v>
+        <v>238692</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2863069727317232</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2502138795451024</v>
+        <v>0.2513355008745119</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3196452201981136</v>
+        <v>0.3212048711201156</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>132366</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>113214</v>
+        <v>114695</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>152207</v>
+        <v>156598</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3068630183267251</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2624622799059251</v>
+        <v>0.2658956653608635</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3528590698944758</v>
+        <v>0.3630392739902001</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -906,19 +906,19 @@
         <v>86990</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>69615</v>
+        <v>69006</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>105025</v>
+        <v>103239</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2790274400960077</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2232948741776974</v>
+        <v>0.2213414373974014</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3368746214731663</v>
+        <v>0.3311463347897031</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>203</v>
@@ -927,19 +927,19 @@
         <v>219357</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>194833</v>
+        <v>194327</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>247696</v>
+        <v>244205</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2951850176940246</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2621836773340502</v>
+        <v>0.2615033664958333</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3333210704689278</v>
+        <v>0.3286227930186507</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>85595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68526</v>
+        <v>67777</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103979</v>
+        <v>104671</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1984336697477136</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1588636626573648</v>
+        <v>0.1571266731158711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2410527540956977</v>
+        <v>0.2426574425486561</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>63</v>
@@ -977,19 +977,19 @@
         <v>68511</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53552</v>
+        <v>55652</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83709</v>
+        <v>86812</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2197533892325433</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.171771346392187</v>
+        <v>0.1785068963199471</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2685005412516704</v>
+        <v>0.2784553517948694</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>140</v>
@@ -998,19 +998,19 @@
         <v>154106</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130910</v>
+        <v>131775</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>181503</v>
+        <v>181480</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2073780392725432</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1761631019477291</v>
+        <v>0.1773278560233253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2442454662778034</v>
+        <v>0.2442155698373072</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>20024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12029</v>
+        <v>12695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>30430</v>
+        <v>31224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04642246003933343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.0278861671235678</v>
+        <v>0.02943100581228278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07054526378195872</v>
+        <v>0.0723871326104276</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -1048,19 +1048,19 @@
         <v>16932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9892</v>
+        <v>10533</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26307</v>
+        <v>26995</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05430896852262325</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03172857323130495</v>
+        <v>0.03378448698642643</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08437989322670851</v>
+        <v>0.08658962880220365</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>35</v>
@@ -1069,19 +1069,19 @@
         <v>36956</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>26225</v>
+        <v>26392</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>51030</v>
+        <v>50785</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04973112674976744</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03529104178857768</v>
+        <v>0.03551571660429352</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06867064969468809</v>
+        <v>0.0683403282969043</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>59000</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>44635</v>
+        <v>44689</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75544</v>
+        <v>76471</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1425948005960498</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1078777894526826</v>
+        <v>0.1080062267502461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1825791827272015</v>
+        <v>0.1848189743009988</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>30</v>
@@ -1241,19 +1241,19 @@
         <v>32694</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>22724</v>
+        <v>22435</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47229</v>
+        <v>45631</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09771129198936668</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06791475768661608</v>
+        <v>0.06705062348221998</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1411508929091693</v>
+        <v>0.136374602662421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>81</v>
@@ -1262,19 +1262,19 @@
         <v>91694</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>74260</v>
+        <v>72613</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>114489</v>
+        <v>111055</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1225268809945745</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09923004849473405</v>
+        <v>0.09702999563416219</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1529873688473995</v>
+        <v>0.148398117456423</v>
       </c>
     </row>
     <row r="12">
@@ -1291,19 +1291,19 @@
         <v>113565</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>94126</v>
+        <v>95149</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>133876</v>
+        <v>134536</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2744721781613849</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.227490807066609</v>
+        <v>0.2299616370120557</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3235596342477456</v>
+        <v>0.325156128364054</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>86</v>
@@ -1312,19 +1312,19 @@
         <v>95134</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79326</v>
+        <v>78042</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>113675</v>
+        <v>113451</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2843235801681341</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.237077546854447</v>
+        <v>0.233240219102392</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3397363280627299</v>
+        <v>0.3390641596317151</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>189</v>
@@ -1333,19 +1333,19 @@
         <v>208700</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>181929</v>
+        <v>183582</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>235196</v>
+        <v>237591</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2788768503799872</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2431043843646187</v>
+        <v>0.2453132681550501</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3142831127417023</v>
+        <v>0.3174833919868912</v>
       </c>
     </row>
     <row r="13">
@@ -1362,19 +1362,19 @@
         <v>155517</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135430</v>
+        <v>132795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180068</v>
+        <v>175872</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3758638419039169</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.327316385620332</v>
+        <v>0.3209467479766966</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.435201312166962</v>
+        <v>0.4250589256796874</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -1383,19 +1383,19 @@
         <v>108221</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>90769</v>
+        <v>89997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128416</v>
+        <v>126826</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3234360168377057</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2712770941759958</v>
+        <v>0.268969573262679</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.383790605635765</v>
+        <v>0.3790401051414798</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -1404,19 +1404,19 @@
         <v>263738</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>234868</v>
+        <v>237673</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>290997</v>
+        <v>293656</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3524227738820583</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3138446246353245</v>
+        <v>0.317592717440571</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3888469600033534</v>
+        <v>0.3924003852790943</v>
       </c>
     </row>
     <row r="14">
@@ -1433,19 +1433,19 @@
         <v>73353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>56578</v>
+        <v>57345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>90152</v>
+        <v>91177</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.177284792714632</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1367407260797085</v>
+        <v>0.1385962487994499</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2178841173146205</v>
+        <v>0.2203632188641503</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>65</v>
@@ -1454,19 +1454,19 @@
         <v>69284</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>55387</v>
+        <v>54969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>84933</v>
+        <v>86744</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2070665672589028</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1655311759234642</v>
+        <v>0.1642822592065671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2538354235086359</v>
+        <v>0.2592482813420784</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -1475,19 +1475,19 @@
         <v>142637</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>120914</v>
+        <v>120157</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>166693</v>
+        <v>168102</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1906005578073524</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1615718159236101</v>
+        <v>0.160560739196467</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2227454538368398</v>
+        <v>0.2246280780712336</v>
       </c>
     </row>
     <row r="15">
@@ -1504,19 +1504,19 @@
         <v>12324</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6240</v>
+        <v>6897</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21564</v>
+        <v>22448</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02978438662401653</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01508067638063994</v>
+        <v>0.01667019993130947</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05211836097251094</v>
+        <v>0.05425287525882175</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>25</v>
@@ -1525,19 +1525,19 @@
         <v>29265</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>20079</v>
+        <v>19285</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42997</v>
+        <v>41905</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.0874625437458907</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06001006287828237</v>
+        <v>0.05763702789327902</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1285041983952854</v>
+        <v>0.1252383624840174</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>36</v>
@@ -1546,19 +1546,19 @@
         <v>41588</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>28702</v>
+        <v>28661</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>56299</v>
+        <v>56022</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05557293693602754</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03835394366356771</v>
+        <v>0.03829880275747501</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07523010206838671</v>
+        <v>0.07485941948245725</v>
       </c>
     </row>
     <row r="16">
@@ -1697,19 +1697,19 @@
         <v>105099</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>88561</v>
+        <v>83106</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>126210</v>
+        <v>126035</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1685551285745857</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1420323138751424</v>
+        <v>0.1332828291725689</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2024120420361972</v>
+        <v>0.2021314259631595</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>22</v>
@@ -1718,19 +1718,19 @@
         <v>22607</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>15084</v>
+        <v>14575</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33950</v>
+        <v>33297</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08836658418057577</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0589595741604861</v>
+        <v>0.05697131866780995</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1327040895253483</v>
+        <v>0.1301541758132077</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>119</v>
@@ -1739,19 +1739,19 @@
         <v>127706</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>104916</v>
+        <v>107123</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149075</v>
+        <v>151233</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1452260998102438</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1193095814653962</v>
+        <v>0.1218193414763932</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1695262250300446</v>
+        <v>0.17198081001707</v>
       </c>
     </row>
     <row r="19">
@@ -1768,19 +1768,19 @@
         <v>154747</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>132213</v>
+        <v>134509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176822</v>
+        <v>180947</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2481787664291699</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2120388776006489</v>
+        <v>0.2157221529745583</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2835825898940068</v>
+        <v>0.2901980827914089</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>51</v>
@@ -1789,19 +1789,19 @@
         <v>53386</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41061</v>
+        <v>41305</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>67078</v>
+        <v>67637</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2086767047640713</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1605022521201363</v>
+        <v>0.1614540090280193</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2621974362491551</v>
+        <v>0.2643811195534941</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>192</v>
@@ -1810,19 +1810,19 @@
         <v>208133</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>183802</v>
+        <v>184096</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>235399</v>
+        <v>238033</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2366865421993866</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2090176674294694</v>
+        <v>0.2093527313597913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2676934845628045</v>
+        <v>0.2706888284644837</v>
       </c>
     </row>
     <row r="20">
@@ -1839,19 +1839,19 @@
         <v>213337</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190932</v>
+        <v>188739</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>239694</v>
+        <v>238899</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3421444510847033</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3062107536923971</v>
+        <v>0.302694358766795</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3844144351946455</v>
+        <v>0.383140288970275</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>75</v>
@@ -1860,19 +1860,19 @@
         <v>79647</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65619</v>
+        <v>65823</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>96751</v>
+        <v>95290</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3113280579532733</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.256495316521766</v>
+        <v>0.2572921697611257</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3781863711314959</v>
+        <v>0.3724737089586778</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>280</v>
@@ -1881,19 +1881,19 @@
         <v>292984</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>265909</v>
+        <v>264245</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>321068</v>
+        <v>322535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3331791240893164</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3023890548528925</v>
+        <v>0.3004971721431555</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3651156886355846</v>
+        <v>0.3667841214216663</v>
       </c>
     </row>
     <row r="21">
@@ -1910,19 +1910,19 @@
         <v>121012</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>102158</v>
+        <v>100773</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>140817</v>
+        <v>142467</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1940753360983348</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1638385849654215</v>
+        <v>0.1616164884392611</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2258387147943075</v>
+        <v>0.2284847226107882</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>63</v>
@@ -1931,19 +1931,19 @@
         <v>68430</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>54034</v>
+        <v>54932</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>83854</v>
+        <v>83098</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2674832669979272</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2112098167951334</v>
+        <v>0.2147208421495009</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3277724774494096</v>
+        <v>0.3248166551136546</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>176</v>
@@ -1952,19 +1952,19 @@
         <v>189442</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>161710</v>
+        <v>165145</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>215319</v>
+        <v>215747</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2154316999583994</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1838955008030642</v>
+        <v>0.1878012735630785</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.244858735735993</v>
+        <v>0.2453456453662011</v>
       </c>
     </row>
     <row r="22">
@@ -1981,19 +1981,19 @@
         <v>29335</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20112</v>
+        <v>20261</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42545</v>
+        <v>42285</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04704631781320624</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03225586424285567</v>
+        <v>0.03249334018987176</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06823289338100934</v>
+        <v>0.06781503927807452</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -2002,19 +2002,19 @@
         <v>31760</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>21680</v>
+        <v>22099</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>44071</v>
+        <v>43181</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1241453861041524</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08474317553485608</v>
+        <v>0.0863798155755571</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1722677602143098</v>
+        <v>0.1687881327782053</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>58</v>
@@ -2023,19 +2023,19 @@
         <v>61095</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>47508</v>
+        <v>45513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>77243</v>
+        <v>77065</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06947653394265388</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0540259739515708</v>
+        <v>0.05175747907119406</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08784016825018826</v>
+        <v>0.08763714898065673</v>
       </c>
     </row>
     <row r="23">
@@ -2174,19 +2174,19 @@
         <v>195471</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>170121</v>
+        <v>171027</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>221975</v>
+        <v>223587</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.171338582073098</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1491183391395325</v>
+        <v>0.1499119222745378</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1945699118293795</v>
+        <v>0.1959827956160659</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>96</v>
@@ -2195,19 +2195,19 @@
         <v>103245</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>85321</v>
+        <v>84264</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>124377</v>
+        <v>125330</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1368036067959631</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1130539855634048</v>
+        <v>0.1116534952233131</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1648049091352157</v>
+        <v>0.1660674679755372</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>278</v>
@@ -2216,19 +2216,19 @@
         <v>298716</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>265624</v>
+        <v>265187</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>329859</v>
+        <v>329716</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1575887954042849</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1401307664705904</v>
+        <v>0.1399003061811478</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1740181595085874</v>
+        <v>0.1739428768406921</v>
       </c>
     </row>
     <row r="26">
@@ -2245,19 +2245,19 @@
         <v>281309</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>252969</v>
+        <v>252236</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>311069</v>
+        <v>310338</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2465786398308281</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2217379744205609</v>
+        <v>0.2210951735925179</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2726646342749598</v>
+        <v>0.2720237448722189</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>178</v>
@@ -2266,19 +2266,19 @@
         <v>192363</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>168128</v>
+        <v>169947</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>217999</v>
+        <v>217290</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2548895164241708</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2227776061050429</v>
+        <v>0.2251865942986372</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2888582220746874</v>
+        <v>0.2879189051807894</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>442</v>
@@ -2287,19 +2287,19 @@
         <v>473672</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>436551</v>
+        <v>437916</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>515138</v>
+        <v>514124</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2498875398451551</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2303042517967564</v>
+        <v>0.231024422892063</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2717630770364617</v>
+        <v>0.2712279653529306</v>
       </c>
     </row>
     <row r="27">
@@ -2316,19 +2316,19 @@
         <v>342830</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>311343</v>
+        <v>312564</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>374426</v>
+        <v>376671</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3005041630749714</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2729053233796224</v>
+        <v>0.2739754438232995</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3281993330804271</v>
+        <v>0.330167586018746</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>211</v>
@@ -2337,19 +2337,19 @@
         <v>225501</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>199613</v>
+        <v>201333</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>248691</v>
+        <v>249634</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2987984330359187</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2644953690220931</v>
+        <v>0.2667756374690957</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3295259919701155</v>
+        <v>0.3307753777560892</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>533</v>
@@ -2358,19 +2358,19 @@
         <v>568331</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>529042</v>
+        <v>530607</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>610601</v>
+        <v>607872</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2998250421558639</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2790980230546158</v>
+        <v>0.2799239736870756</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3221248384288904</v>
+        <v>0.3206852520607495</v>
       </c>
     </row>
     <row r="28">
@@ -2387,19 +2387,19 @@
         <v>252318</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>222463</v>
+        <v>222869</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>281136</v>
+        <v>280148</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2211673525119894</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1949981710405006</v>
+        <v>0.1953534791495691</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2464267876612076</v>
+        <v>0.2455610136260857</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>167</v>
@@ -2408,19 +2408,19 @@
         <v>180500</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>156170</v>
+        <v>155362</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>203508</v>
+        <v>204955</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2391697591520682</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2069318694372802</v>
+        <v>0.2058617067593423</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2696570531686359</v>
+        <v>0.2715738835756984</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>399</v>
@@ -2429,19 +2429,19 @@
         <v>432818</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>396056</v>
+        <v>395268</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>469426</v>
+        <v>472828</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2283348471703739</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.208940685530241</v>
+        <v>0.2085249813499051</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2476475784058525</v>
+        <v>0.2494424433932194</v>
       </c>
     </row>
     <row r="29">
@@ -2458,19 +2458,19 @@
         <v>68920</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53035</v>
+        <v>54526</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>85965</v>
+        <v>85826</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.06041126250911321</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.04648704443981474</v>
+        <v>0.04779416938970285</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07535158981971306</v>
+        <v>0.07522992499008083</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>47</v>
@@ -2479,19 +2479,19 @@
         <v>53084</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>39376</v>
+        <v>40126</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>69430</v>
+        <v>70712</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07033868459187918</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05217481911310409</v>
+        <v>0.05316935274167053</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.09199810462758481</v>
+        <v>0.09369629410451863</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>113</v>
@@ -2500,19 +2500,19 @@
         <v>122004</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>102278</v>
+        <v>100794</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>145925</v>
+        <v>144971</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06436377542432212</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.05395738307319094</v>
+        <v>0.05317428744030914</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07698314637964733</v>
+        <v>0.07647997069097817</v>
       </c>
     </row>
     <row r="30">
@@ -2651,19 +2651,19 @@
         <v>72812</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>58308</v>
+        <v>57848</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>89729</v>
+        <v>91032</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1443126585484703</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1155654213224099</v>
+        <v>0.1146530968616174</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1778415395504338</v>
+        <v>0.1804240404830508</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>80</v>
@@ -2672,19 +2672,19 @@
         <v>83953</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>67904</v>
+        <v>68097</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>104352</v>
+        <v>102285</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1109596874042376</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08974817333692757</v>
+        <v>0.09000335606103189</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.137920907441926</v>
+        <v>0.1351887471263032</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>150</v>
@@ -2693,19 +2693,19 @@
         <v>156765</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>133639</v>
+        <v>133981</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>181304</v>
+        <v>181803</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.124303104877447</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1059652968347585</v>
+        <v>0.1062364485234036</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1437604273397411</v>
+        <v>0.1441558943391983</v>
       </c>
     </row>
     <row r="33">
@@ -2722,19 +2722,19 @@
         <v>124994</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>106603</v>
+        <v>105527</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>144600</v>
+        <v>143199</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2477354778250291</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.211285521144859</v>
+        <v>0.2091514704868993</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2865948505277379</v>
+        <v>0.2838184342389332</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>138</v>
@@ -2743,19 +2743,19 @@
         <v>152420</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>131916</v>
+        <v>129701</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>175325</v>
+        <v>174843</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2014517456854676</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.1743520064207233</v>
+        <v>0.1714247573079665</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2317246360906941</v>
+        <v>0.2310876780616065</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>256</v>
@@ -2764,19 +2764,19 @@
         <v>277414</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>248987</v>
+        <v>248459</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>309346</v>
+        <v>308810</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2199683317336991</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.1974275797475329</v>
+        <v>0.197008997241514</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.2452880004931826</v>
+        <v>0.2448634287075798</v>
       </c>
     </row>
     <row r="34">
@@ -2793,19 +2793,19 @@
         <v>162104</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>141161</v>
+        <v>141817</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>182295</v>
+        <v>185586</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3212865081423008</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2797776836232559</v>
+        <v>0.2810781724914668</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3613057724526046</v>
+        <v>0.3678272658435927</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>220</v>
@@ -2814,19 +2814,19 @@
         <v>237160</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>212404</v>
+        <v>210301</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>265641</v>
+        <v>263622</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.3134510120738945</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2807312693560325</v>
+        <v>0.2779517997788188</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3510943631984355</v>
+        <v>0.3484260795456259</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>373</v>
@@ -2835,19 +2835,19 @@
         <v>399263</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>368018</v>
+        <v>365833</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>434784</v>
+        <v>432694</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3165857341560234</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2918107483177386</v>
+        <v>0.2900780983499295</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.344750875245136</v>
+        <v>0.3430936224422879</v>
       </c>
     </row>
     <row r="35">
@@ -2864,19 +2864,19 @@
         <v>110250</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>93621</v>
+        <v>92523</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>130407</v>
+        <v>131211</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2185138143723917</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1855555443361113</v>
+        <v>0.1833786097049973</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.258463635565662</v>
+        <v>0.2600573293939383</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>201</v>
@@ -2885,19 +2885,19 @@
         <v>218681</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>193185</v>
+        <v>194637</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>243957</v>
+        <v>248085</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2890287879527518</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.255330804360206</v>
+        <v>0.2572492724325939</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3224349386979561</v>
+        <v>0.3278906922697492</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>307</v>
@@ -2906,19 +2906,19 @@
         <v>328932</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>297069</v>
+        <v>298377</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>360537</v>
+        <v>361493</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2608180859278508</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2355531524800594</v>
+        <v>0.2365900762953666</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2858783684645363</v>
+        <v>0.2866366157826263</v>
       </c>
     </row>
     <row r="36">
@@ -2935,19 +2935,19 @@
         <v>34386</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>24359</v>
+        <v>23940</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>47067</v>
+        <v>46922</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06815154111180817</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.04827851584340396</v>
+        <v>0.04744818298723196</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.09328604304219039</v>
+        <v>0.09299765409830517</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>60</v>
@@ -2956,19 +2956,19 @@
         <v>64394</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>49822</v>
+        <v>50124</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>79603</v>
+        <v>80167</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.08510876688364838</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.0658495958483403</v>
+        <v>0.06624858567981366</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1052110009223644</v>
+        <v>0.1059557514213523</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>94</v>
@@ -2977,19 +2977,19 @@
         <v>98780</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>80389</v>
+        <v>82032</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>119709</v>
+        <v>120072</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.07832474330497977</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.06374251563011459</v>
+        <v>0.0650448048630972</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.09492024675170466</v>
+        <v>0.0952078266825462</v>
       </c>
     </row>
     <row r="37">
@@ -3128,19 +3128,19 @@
         <v>34578</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>24646</v>
+        <v>23876</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>47598</v>
+        <v>47500</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1324068545694</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.09437527704775833</v>
+        <v>0.09142430282356354</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1822631421603137</v>
+        <v>0.1818871676439934</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>76</v>
@@ -3149,19 +3149,19 @@
         <v>78892</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>63731</v>
+        <v>63379</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>100334</v>
+        <v>98102</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.07230808869230745</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.05841261182755979</v>
+        <v>0.05808956982055372</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09196045458815984</v>
+        <v>0.08991454843042851</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>109</v>
@@ -3170,19 +3170,19 @@
         <v>113470</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>94741</v>
+        <v>93517</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>137051</v>
+        <v>135582</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.08391493643561523</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.07006372485458681</v>
+        <v>0.06915910086663776</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1013536581731472</v>
+        <v>0.1002668369585547</v>
       </c>
     </row>
     <row r="40">
@@ -3199,19 +3199,19 @@
         <v>68124</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>53968</v>
+        <v>55196</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>83449</v>
+        <v>84056</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2608624132763377</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2066554293440415</v>
+        <v>0.2113553218198612</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3195416112182153</v>
+        <v>0.3218683555519933</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>196</v>
@@ -3220,19 +3220,19 @@
         <v>207166</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>186010</v>
+        <v>180487</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>234413</v>
+        <v>233907</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1898762513045415</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1704861194259754</v>
+        <v>0.1654240285582189</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2148491076121964</v>
+        <v>0.2143858667899866</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>263</v>
@@ -3241,19 +3241,19 @@
         <v>275290</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>243606</v>
+        <v>249330</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>305629</v>
+        <v>307264</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.20358577698055</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1801542420266591</v>
+        <v>0.1843873603708247</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2260218203043131</v>
+        <v>0.227231398038759</v>
       </c>
     </row>
     <row r="41">
@@ -3270,19 +3270,19 @@
         <v>104940</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>89597</v>
+        <v>90595</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>120495</v>
+        <v>121343</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4018371665337579</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3430848528222869</v>
+        <v>0.346907576462141</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4614007540006633</v>
+        <v>0.4646451528536889</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>357</v>
@@ -3291,19 +3291,19 @@
         <v>380422</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>350470</v>
+        <v>347875</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>413720</v>
+        <v>413236</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3486726723121419</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3212204607530246</v>
+        <v>0.3188420408437733</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3791919259273668</v>
+        <v>0.3787480122490897</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>462</v>
@@ -3312,19 +3312,19 @@
         <v>485362</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>445713</v>
+        <v>449655</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>523465</v>
+        <v>519775</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3589403072755991</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3296188953680094</v>
+        <v>0.3325336439320865</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3871187328495163</v>
+        <v>0.3843899991196723</v>
       </c>
     </row>
     <row r="42">
@@ -3341,19 +3341,19 @@
         <v>41976</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>31434</v>
+        <v>31863</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>53803</v>
+        <v>54620</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1607329725823294</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1203653060016902</v>
+        <v>0.1220092204120781</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2060225101301924</v>
+        <v>0.2091495209136217</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>306</v>
@@ -3362,19 +3362,19 @@
         <v>328425</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>297678</v>
+        <v>299455</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>359498</v>
+        <v>362762</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3010156491254756</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2728342976695992</v>
+        <v>0.274463484967133</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3294952441368594</v>
+        <v>0.3324870668516434</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>348</v>
@@ -3383,19 +3383,19 @@
         <v>370401</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>338505</v>
+        <v>338061</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>403719</v>
+        <v>405312</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2739229186193303</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2503353314132336</v>
+        <v>0.2500063091683205</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2985629845396631</v>
+        <v>0.2997407560676165</v>
       </c>
     </row>
     <row r="43">
@@ -3412,19 +3412,19 @@
         <v>11533</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5859</v>
+        <v>6713</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>19109</v>
+        <v>19132</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.04416059303817501</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.02243604799954344</v>
+        <v>0.02570501734926109</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.07317359017504066</v>
+        <v>0.0732614254355996</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>91</v>
@@ -3433,19 +3433,19 @@
         <v>96152</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>78138</v>
+        <v>78807</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>116037</v>
+        <v>116694</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08812733856553354</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.07161649574175595</v>
+        <v>0.07222998969779254</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1063530582973414</v>
+        <v>0.1069546587650766</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>103</v>
@@ -3454,19 +3454,19 @@
         <v>107685</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>88458</v>
+        <v>90367</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>128256</v>
+        <v>131119</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07963606068890543</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06541710596822638</v>
+        <v>0.06682938426560475</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0948490193979548</v>
+        <v>0.09696689795592897</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>536311</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>493363</v>
+        <v>490805</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>582546</v>
+        <v>584419</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1588980580659066</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1461735591792353</v>
+        <v>0.1454155304509323</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1725965233542181</v>
+        <v>0.1731515328434675</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>351</v>
@@ -3626,19 +3626,19 @@
         <v>371979</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>334727</v>
+        <v>337685</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>408868</v>
+        <v>409004</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1061417801879087</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.09551208280473825</v>
+        <v>0.09635617419290765</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1166678937778553</v>
+        <v>0.1167064969397114</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>847</v>
@@ -3647,19 +3647,19 @@
         <v>908290</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>853246</v>
+        <v>850412</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>967814</v>
+        <v>973147</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1320239213800284</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1240231193170185</v>
+        <v>0.1236111246007142</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1406760562718244</v>
+        <v>0.1414512599114298</v>
       </c>
     </row>
     <row r="47">
@@ -3676,19 +3676,19 @@
         <v>866757</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>820168</v>
+        <v>811381</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>922090</v>
+        <v>920485</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2568026367992496</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2429992524207077</v>
+        <v>0.2403956632080598</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2731965118853334</v>
+        <v>0.2727211748742903</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>726</v>
@@ -3697,19 +3697,19 @@
         <v>789211</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>741321</v>
+        <v>739085</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>847666</v>
+        <v>839009</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2251961185011299</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2115310979537585</v>
+        <v>0.210893026811231</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2418758650699647</v>
+        <v>0.2394057596727171</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1533</v>
@@ -3718,19 +3718,19 @@
         <v>1655968</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1584841</v>
+        <v>1578607</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1730455</v>
+        <v>1733818</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2407022232167626</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2303635825111139</v>
+        <v>0.2294574143993939</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2515292358006537</v>
+        <v>0.2520180577460185</v>
       </c>
     </row>
     <row r="48">
@@ -3747,19 +3747,19 @@
         <v>1111095</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1057826</v>
+        <v>1055218</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1168091</v>
+        <v>1180527</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3291948701988374</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3134124582913301</v>
+        <v>0.3126396361760866</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3460816141273097</v>
+        <v>0.3497662767292178</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1037</v>
@@ -3768,19 +3768,19 @@
         <v>1117941</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1059471</v>
+        <v>1064074</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1171015</v>
+        <v>1177031</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3189970906867485</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.302313059771054</v>
+        <v>0.3036264193913187</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3341412851129773</v>
+        <v>0.3358579847405405</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2089</v>
@@ -3789,19 +3789,19 @@
         <v>2229036</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2148828</v>
+        <v>2152042</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2306859</v>
+        <v>2308484</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3240001041629526</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3123415599302072</v>
+        <v>0.3128088314429425</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.3353120980407292</v>
+        <v>0.3355482813908396</v>
       </c>
     </row>
     <row r="49">
@@ -3818,19 +3818,19 @@
         <v>684504</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>635078</v>
+        <v>636621</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>732681</v>
+        <v>733273</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.2028047956386791</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1881608140956881</v>
+        <v>0.1886179241914115</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.2170784506625312</v>
+        <v>0.2172540275936633</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>865</v>
@@ -3839,19 +3839,19 @@
         <v>933832</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>878731</v>
+        <v>878942</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>986489</v>
+        <v>985028</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.2664627298736598</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.250739911975609</v>
+        <v>0.2508001886767199</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2814880889474253</v>
+        <v>0.2810710520678544</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1498</v>
@@ -3860,19 +3860,19 @@
         <v>1618336</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1550279</v>
+        <v>1547176</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1686488</v>
+        <v>1695263</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.2352322544091354</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.2253398158716434</v>
+        <v>0.2248888406460803</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.2451384452275226</v>
+        <v>0.2464139681051258</v>
       </c>
     </row>
     <row r="50">
@@ -3889,19 +3889,19 @@
         <v>176521</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>153003</v>
+        <v>149200</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>204050</v>
+        <v>203904</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.05229963929732721</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.04533158710854818</v>
+        <v>0.04420498733954153</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06045584165123429</v>
+        <v>0.06041260945837199</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>268</v>
@@ -3910,19 +3910,19 @@
         <v>291587</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>259230</v>
+        <v>257883</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>325699</v>
+        <v>325454</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.08320228075055312</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.07396960941497542</v>
+        <v>0.07358513974698572</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.09293615770762061</v>
+        <v>0.0928660905099457</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>439</v>
@@ -3931,19 +3931,19 @@
         <v>468108</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>426377</v>
+        <v>425468</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>510910</v>
+        <v>509671</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.06804149683112096</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.0619757133789274</v>
+        <v>0.06184365414840043</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.07426296517192083</v>
+        <v>0.07408292064177679</v>
       </c>
     </row>
     <row r="51">
@@ -4324,19 +4324,19 @@
         <v>80155</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65545</v>
+        <v>62152</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97841</v>
+        <v>96488</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1895121711307302</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1549713821394738</v>
+        <v>0.1469477572154501</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2313288280811367</v>
+        <v>0.2281290170985628</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>33</v>
@@ -4345,19 +4345,19 @@
         <v>33483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22903</v>
+        <v>23070</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44702</v>
+        <v>46340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09814481104300889</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0671333270573293</v>
+        <v>0.067620618249462</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1310274042604041</v>
+        <v>0.1358313455404488</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -4366,19 +4366,19 @@
         <v>113638</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93658</v>
+        <v>93012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136932</v>
+        <v>134451</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1487184292631807</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1225714726955631</v>
+        <v>0.1217257869475025</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1792038483168917</v>
+        <v>0.1759574469016904</v>
       </c>
     </row>
     <row r="5">
@@ -4395,19 +4395,19 @@
         <v>142119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>121535</v>
+        <v>122570</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>161711</v>
+        <v>164544</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3360166283515099</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2873491285520101</v>
+        <v>0.2897968999528761</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3823396785299671</v>
+        <v>0.3890375651834633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>124</v>
@@ -4416,19 +4416,19 @@
         <v>129318</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>111911</v>
+        <v>112337</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147479</v>
+        <v>147510</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3790528108348577</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3280297775270491</v>
+        <v>0.3292763142327693</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4322852175769628</v>
+        <v>0.4323748400512804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>255</v>
@@ -4437,19 +4437,19 @@
         <v>271437</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>245014</v>
+        <v>243894</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>301888</v>
+        <v>300182</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3552314433303481</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.320651007863037</v>
+        <v>0.3191860820491506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3950824514246852</v>
+        <v>0.3928500814799454</v>
       </c>
     </row>
     <row r="6">
@@ -4466,19 +4466,19 @@
         <v>132279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>114113</v>
+        <v>110903</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>154098</v>
+        <v>151153</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3127516989991373</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2698005713778528</v>
+        <v>0.2622106099389454</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3643393047226622</v>
+        <v>0.3573765316611587</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>114</v>
@@ -4487,19 +4487,19 @@
         <v>118757</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102079</v>
+        <v>101414</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137822</v>
+        <v>135589</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3480961356639743</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2992105462660156</v>
+        <v>0.2972615901152463</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4039775140650421</v>
+        <v>0.3974314469740892</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>240</v>
@@ -4508,19 +4508,19 @@
         <v>251036</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>224775</v>
+        <v>225893</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>276922</v>
+        <v>278880</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3285322996904019</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2941646052621617</v>
+        <v>0.2956276439769</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3624095346402702</v>
+        <v>0.3649723685192527</v>
       </c>
     </row>
     <row r="7">
@@ -4537,19 +4537,19 @@
         <v>56260</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41841</v>
+        <v>43204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>71266</v>
+        <v>71998</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1330173404453709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09892638449883422</v>
+        <v>0.1021489168523859</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1684965057660636</v>
+        <v>0.1702284036828327</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>49</v>
@@ -4558,19 +4558,19 @@
         <v>52518</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40873</v>
+        <v>39807</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68965</v>
+        <v>67282</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1539374722248278</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1198047334123968</v>
+        <v>0.1166814231980575</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2021465147426451</v>
+        <v>0.1972155419819395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -4579,19 +4579,19 @@
         <v>108777</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89198</v>
+        <v>89485</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>130579</v>
+        <v>130853</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1423577707131047</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1167335589497515</v>
+        <v>0.1171095302092516</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1708899382601535</v>
+        <v>0.1712482344110656</v>
       </c>
     </row>
     <row r="8">
@@ -4608,19 +4608,19 @@
         <v>12140</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6581</v>
+        <v>5935</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21797</v>
+        <v>20687</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02870216107325164</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01555990538297584</v>
+        <v>0.01403138986065067</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05153465752628233</v>
+        <v>0.04891027264196061</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4629,19 +4629,19 @@
         <v>7086</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2918</v>
+        <v>2899</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13170</v>
+        <v>13344</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02076877023333122</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008553009724425758</v>
+        <v>0.008496487176438042</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03860295857618586</v>
+        <v>0.03911252072152249</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -4650,19 +4650,19 @@
         <v>19225</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>12136</v>
+        <v>11836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30161</v>
+        <v>30423</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02516005700296465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01588203412342781</v>
+        <v>0.01548937035235705</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03947170422278218</v>
+        <v>0.03981478574514021</v>
       </c>
     </row>
     <row r="9">
@@ -4801,19 +4801,19 @@
         <v>58717</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45455</v>
+        <v>45298</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>75860</v>
+        <v>73808</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1568603185812817</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1214332203616571</v>
+        <v>0.1210133823589026</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2026596226650676</v>
+        <v>0.1971773044371544</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -4822,19 +4822,19 @@
         <v>57300</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43360</v>
+        <v>44598</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>72765</v>
+        <v>72620</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1559645122791547</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1180210225515024</v>
+        <v>0.1213897571163667</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1980592805934313</v>
+        <v>0.197662542106112</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>106</v>
@@ -4843,19 +4843,19 @@
         <v>116017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>96377</v>
+        <v>97342</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>138128</v>
+        <v>137369</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1564166017345845</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1299380859149471</v>
+        <v>0.1312383093041387</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1862282777959709</v>
+        <v>0.1852037554075862</v>
       </c>
     </row>
     <row r="12">
@@ -4872,19 +4872,19 @@
         <v>110989</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>95009</v>
+        <v>94647</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>130418</v>
+        <v>131379</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2965039729420457</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2538161828898829</v>
+        <v>0.2528482731268981</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3484090534651293</v>
+        <v>0.3509777990006564</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>106</v>
@@ -4893,19 +4893,19 @@
         <v>112492</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>93678</v>
+        <v>95164</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>129502</v>
+        <v>130485</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3061919285459016</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2549814330857016</v>
+        <v>0.2590248052774243</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3524887312192837</v>
+        <v>0.3551660853845552</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>214</v>
@@ -4914,19 +4914,19 @@
         <v>223481</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>196178</v>
+        <v>198844</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>249711</v>
+        <v>251422</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3013026767480782</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2644921055908709</v>
+        <v>0.2680870043673044</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3366664152608307</v>
+        <v>0.3389732391604287</v>
       </c>
     </row>
     <row r="13">
@@ -4943,19 +4943,19 @@
         <v>126547</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>105442</v>
+        <v>109840</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>145705</v>
+        <v>145964</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3380674824610884</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2816864495748274</v>
+        <v>0.2934364201644972</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3892494823237577</v>
+        <v>0.3899391743698485</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>126</v>
@@ -4964,19 +4964,19 @@
         <v>132092</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114468</v>
+        <v>115294</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>151699</v>
+        <v>151642</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3595403790054145</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3115688305117325</v>
+        <v>0.313818625007368</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4129078368805454</v>
+        <v>0.4127517382282119</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -4985,19 +4985,19 @@
         <v>258639</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>234044</v>
+        <v>230708</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>286559</v>
+        <v>282826</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3487035830572542</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3155443199375332</v>
+        <v>0.3110456691809796</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3863460988347329</v>
+        <v>0.3813128856036641</v>
       </c>
     </row>
     <row r="14">
@@ -5014,19 +5014,19 @@
         <v>67750</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>52658</v>
+        <v>54629</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83599</v>
+        <v>85055</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1809938603021377</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1406736941090824</v>
+        <v>0.1459407653976488</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2233333712089617</v>
+        <v>0.2272242515581304</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -5035,19 +5035,19 @@
         <v>49052</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37375</v>
+        <v>36395</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>62487</v>
+        <v>62328</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1335136205530823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1017309725705298</v>
+        <v>0.09906438563714523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.170083627742766</v>
+        <v>0.1696507317770224</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>110</v>
@@ -5056,19 +5056,19 @@
         <v>116802</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>96318</v>
+        <v>96777</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>138256</v>
+        <v>137587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1574756262688971</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1298586657047075</v>
+        <v>0.1304770502538055</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1863999846699149</v>
+        <v>0.1854980151759318</v>
       </c>
     </row>
     <row r="15">
@@ -5085,19 +5085,19 @@
         <v>10322</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4876</v>
+        <v>4831</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18676</v>
+        <v>18398</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02757436571344647</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01302553378909088</v>
+        <v>0.01290647310038532</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04989206112533944</v>
+        <v>0.04915011860495043</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>14</v>
@@ -5106,19 +5106,19 @@
         <v>16455</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8857</v>
+        <v>8417</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>27447</v>
+        <v>26151</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04478955961644691</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02410661199116144</v>
+        <v>0.02290881057687981</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07470833486876824</v>
+        <v>0.07117968019266209</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>24</v>
@@ -5127,19 +5127,19 @@
         <v>26777</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>17846</v>
+        <v>17067</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>39644</v>
+        <v>38349</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03610151219118592</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02406035880522575</v>
+        <v>0.02301032341192346</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05344872302820627</v>
+        <v>0.05170267215544191</v>
       </c>
     </row>
     <row r="16">
@@ -5278,19 +5278,19 @@
         <v>59497</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45615</v>
+        <v>46176</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>76156</v>
+        <v>75459</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1168943358230013</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08961970471114963</v>
+        <v>0.09072245398980899</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.149623664195701</v>
+        <v>0.1482539540142352</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -5299,19 +5299,19 @@
         <v>17058</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>10143</v>
+        <v>10063</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>27249</v>
+        <v>27033</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1039215079493337</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06179284774242268</v>
+        <v>0.0613046332936455</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1660041384789577</v>
+        <v>0.1646914701442406</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>70</v>
@@ -5320,19 +5320,19 @@
         <v>76556</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>58475</v>
+        <v>60107</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>97017</v>
+        <v>94239</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1137308385703466</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08687074880259302</v>
+        <v>0.08929446964596947</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1441281016891995</v>
+        <v>0.1400012649137588</v>
       </c>
     </row>
     <row r="19">
@@ -5349,19 +5349,19 @@
         <v>134281</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114543</v>
+        <v>114509</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>153794</v>
+        <v>154458</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.263823027199954</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2250435851857858</v>
+        <v>0.2249755768388202</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3021592586823211</v>
+        <v>0.3034633243367618</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -5370,19 +5370,19 @@
         <v>57978</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45899</v>
+        <v>45606</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69743</v>
+        <v>71471</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3532103189132493</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2796249414322653</v>
+        <v>0.2778410635139648</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4248811431415292</v>
+        <v>0.435410202760472</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>185</v>
@@ -5391,19 +5391,19 @@
         <v>192260</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>170229</v>
+        <v>167832</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>214794</v>
+        <v>213789</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2856206224899708</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2528920283074537</v>
+        <v>0.2493309452039254</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3190966708978962</v>
+        <v>0.3176049165075672</v>
       </c>
     </row>
     <row r="20">
@@ -5420,19 +5420,19 @@
         <v>195474</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>173735</v>
+        <v>173331</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217903</v>
+        <v>218787</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3840489863991624</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3413379080836749</v>
+        <v>0.3405439062916435</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4281151139144964</v>
+        <v>0.4298522666473164</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>53</v>
@@ -5441,19 +5441,19 @@
         <v>56053</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45232</v>
+        <v>44047</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69371</v>
+        <v>69595</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3414836129451864</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2755623543467308</v>
+        <v>0.2683423280782053</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4226160868652408</v>
+        <v>0.423983711735202</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>242</v>
@@ -5462,19 +5462,19 @@
         <v>251528</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>226911</v>
+        <v>226798</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>274203</v>
+        <v>276656</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3736691799844639</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3370987213962225</v>
+        <v>0.3369305573156309</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4073554133863572</v>
+        <v>0.4109998468455099</v>
       </c>
     </row>
     <row r="21">
@@ -5491,19 +5491,19 @@
         <v>90355</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>73585</v>
+        <v>74615</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>108640</v>
+        <v>108456</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1775199025212089</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1445723313142845</v>
+        <v>0.1465968911343592</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2134458788748606</v>
+        <v>0.2130845351285736</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>22</v>
@@ -5512,19 +5512,19 @@
         <v>24477</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16514</v>
+        <v>16406</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35835</v>
+        <v>35491</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1491170244625163</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1006033931100307</v>
+        <v>0.0999460773788198</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2183121157784325</v>
+        <v>0.216214115495784</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>109</v>
@@ -5533,19 +5533,19 @@
         <v>114832</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>95715</v>
+        <v>96547</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>136230</v>
+        <v>133614</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1705937004948531</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1421945913119133</v>
+        <v>0.1434294554661979</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2023824210588689</v>
+        <v>0.1984966871010787</v>
       </c>
     </row>
     <row r="22">
@@ -5562,19 +5562,19 @@
         <v>29375</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>20504</v>
+        <v>19949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>42176</v>
+        <v>41509</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0577137480566734</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04028461959687824</v>
+        <v>0.03919288520620635</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08286318753111625</v>
+        <v>0.08155366717156315</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>7</v>
@@ -5583,19 +5583,19 @@
         <v>8580</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3529</v>
+        <v>3780</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16810</v>
+        <v>17052</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05226753572971435</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02149816858358146</v>
+        <v>0.02302597608033083</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1024060169550303</v>
+        <v>0.1038801032233323</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>36</v>
@@ -5604,19 +5604,19 @@
         <v>37955</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26710</v>
+        <v>27268</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>52309</v>
+        <v>51889</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05638565846036565</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03968067460545235</v>
+        <v>0.04050969065552906</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07771051937876634</v>
+        <v>0.07708596182366693</v>
       </c>
     </row>
     <row r="23">
@@ -5755,19 +5755,19 @@
         <v>194821</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>169312</v>
+        <v>169016</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>222170</v>
+        <v>221948</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.173163790458629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1504907371677463</v>
+        <v>0.150227086859001</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1974726445162641</v>
+        <v>0.1972753218408965</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -5776,19 +5776,19 @@
         <v>120146</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>100462</v>
+        <v>100987</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>143500</v>
+        <v>141803</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1485235002627429</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1241904968906285</v>
+        <v>0.1248393090923292</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1773941323031792</v>
+        <v>0.1752963735403567</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>302</v>
@@ -5797,19 +5797,19 @@
         <v>314967</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>283647</v>
+        <v>279697</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>348045</v>
+        <v>347689</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1628575023084224</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1466632480566105</v>
+        <v>0.1446207609105805</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1799607690500403</v>
+        <v>0.1797769772609607</v>
       </c>
     </row>
     <row r="26">
@@ -5826,19 +5826,19 @@
         <v>285881</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>257052</v>
+        <v>255304</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>314663</v>
+        <v>312246</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2541006761172027</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2284768757876249</v>
+        <v>0.2269232107129415</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2796839560230002</v>
+        <v>0.277535515437096</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>197</v>
@@ -5847,19 +5847,19 @@
         <v>203727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>180430</v>
+        <v>181684</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>228969</v>
+        <v>228607</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2518455843381683</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2230466697073823</v>
+        <v>0.2245960837233832</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2830504561395344</v>
+        <v>0.2826025715001291</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>468</v>
@@ -5868,19 +5868,19 @@
         <v>489607</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>452046</v>
+        <v>451625</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>527252</v>
+        <v>531617</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.253157439430657</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2337358157922703</v>
+        <v>0.2335182570190383</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2726222272210382</v>
+        <v>0.2748789537396764</v>
       </c>
     </row>
     <row r="27">
@@ -5897,19 +5897,19 @@
         <v>397996</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>367250</v>
+        <v>366304</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>430809</v>
+        <v>430167</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3537532488270298</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3264251373780095</v>
+        <v>0.3255835726602149</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.382918302139493</v>
+        <v>0.3823476850215577</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>270</v>
@@ -5918,19 +5918,19 @@
         <v>275006</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>247802</v>
+        <v>248928</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>303149</v>
+        <v>303490</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3399610452419382</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.306331489474994</v>
+        <v>0.307722549672365</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3747507000483203</v>
+        <v>0.375172098600538</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>654</v>
@@ -5939,19 +5939,19 @@
         <v>673003</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>630215</v>
+        <v>631437</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>714443</v>
+        <v>717142</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3479843872087523</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3258602373953964</v>
+        <v>0.3264922218155586</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3694113721451008</v>
+        <v>0.3708072991538063</v>
       </c>
     </row>
     <row r="28">
@@ -5968,19 +5968,19 @@
         <v>197687</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>172776</v>
+        <v>173322</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>222751</v>
+        <v>224062</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1757114884901099</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.153569783533544</v>
+        <v>0.1540550734641057</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1979892977521745</v>
+        <v>0.1991544220971143</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>160</v>
@@ -5989,19 +5989,19 @@
         <v>170198</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>147942</v>
+        <v>147334</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>193542</v>
+        <v>195862</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2103981542468963</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.182884745903846</v>
+        <v>0.1821335298947002</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2392554592753153</v>
+        <v>0.2421230048975825</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>350</v>
@@ -6010,19 +6010,19 @@
         <v>367886</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>332570</v>
+        <v>334803</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>403161</v>
+        <v>402938</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1902198716876029</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1719592237937043</v>
+        <v>0.173113838084476</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2084591349451555</v>
+        <v>0.2083442145618877</v>
       </c>
     </row>
     <row r="29">
@@ -6039,19 +6039,19 @@
         <v>48683</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>36671</v>
+        <v>37060</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>63058</v>
+        <v>63372</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.04327079610702855</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03259456769466665</v>
+        <v>0.03294032552309233</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05604814297489544</v>
+        <v>0.05632766661392989</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>38</v>
@@ -6060,19 +6060,19 @@
         <v>39858</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>28573</v>
+        <v>29115</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53923</v>
+        <v>54241</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04927171591025438</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03532132980212561</v>
+        <v>0.0359922268178389</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06665955568130763</v>
+        <v>0.06705297132172225</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>87</v>
@@ -6081,19 +6081,19 @@
         <v>88540</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>71545</v>
+        <v>71281</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>107287</v>
+        <v>109042</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.04578079936456536</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.03699334077096714</v>
+        <v>0.03685659063073241</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05547385864017097</v>
+        <v>0.05638151546436632</v>
       </c>
     </row>
     <row r="30">
@@ -6232,19 +6232,19 @@
         <v>109261</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>90568</v>
+        <v>89611</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>129440</v>
+        <v>130390</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1810861747018421</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1501037609431942</v>
+        <v>0.1485179317324266</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2145305825980958</v>
+        <v>0.2161044375424836</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>85</v>
@@ -6253,19 +6253,19 @@
         <v>88021</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>71975</v>
+        <v>72424</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>108033</v>
+        <v>107708</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1214664095887883</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09932318238697491</v>
+        <v>0.0999423957407973</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1490811434024709</v>
+        <v>0.1486325485677633</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>184</v>
@@ -6274,19 +6274,19 @@
         <v>197283</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>173120</v>
+        <v>168909</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>226627</v>
+        <v>223398</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1485537150219976</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.130359401194552</v>
+        <v>0.1271885729081859</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1706499706115481</v>
+        <v>0.1682181512536442</v>
       </c>
     </row>
     <row r="33">
@@ -6303,19 +6303,19 @@
         <v>164259</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>144249</v>
+        <v>140246</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>187207</v>
+        <v>185961</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.2722385112805715</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.239073696834346</v>
+        <v>0.2324390403517996</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3102708374383306</v>
+        <v>0.3082052918605603</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>172</v>
@@ -6324,19 +6324,19 @@
         <v>182256</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>159241</v>
+        <v>157444</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>205065</v>
+        <v>207117</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.2515068503387067</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.2197461449751548</v>
+        <v>0.2172671573553511</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.2829815397096456</v>
+        <v>0.2858136157009367</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>328</v>
@@ -6345,19 +6345,19 @@
         <v>346516</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>314299</v>
+        <v>314312</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>380415</v>
+        <v>378668</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.2609259554124212</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.2366668393311599</v>
+        <v>0.2366765595622743</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.286452337537873</v>
+        <v>0.2851365011337089</v>
       </c>
     </row>
     <row r="34">
@@ -6374,19 +6374,19 @@
         <v>190593</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>167358</v>
+        <v>170044</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>212830</v>
+        <v>216432</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.3158833988064207</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2773735466486321</v>
+        <v>0.2818257639376324</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3527370225150781</v>
+        <v>0.3587084496500217</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>255</v>
@@ -6395,19 +6395,19 @@
         <v>270257</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>246519</v>
+        <v>245356</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>297263</v>
+        <v>295899</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.372945407209711</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.3401876342764669</v>
+        <v>0.3385821218152116</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.4102123354271959</v>
+        <v>0.4083299876949173</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>442</v>
@@ -6416,19 +6416,19 @@
         <v>460851</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>427038</v>
+        <v>427651</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>496259</v>
+        <v>499014</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3470201784316148</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3215588937139968</v>
+        <v>0.3220211005754842</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3736824243038862</v>
+        <v>0.3757569299338406</v>
       </c>
     </row>
     <row r="35">
@@ -6445,19 +6445,19 @@
         <v>113502</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>95550</v>
+        <v>95068</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>134564</v>
+        <v>134881</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1881145647232784</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1583618394121812</v>
+        <v>0.1575628653945328</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2230229297906934</v>
+        <v>0.2235474497252557</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>145</v>
@@ -6466,19 +6466,19 @@
         <v>151188</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>128924</v>
+        <v>129067</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>171930</v>
+        <v>173246</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2086333803957867</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1779110444980839</v>
+        <v>0.1781079164869062</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2372571103163671</v>
+        <v>0.2390733638261273</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>257</v>
@@ -6487,19 +6487,19 @@
         <v>264690</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>235042</v>
+        <v>239086</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>292635</v>
+        <v>296873</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1993109782327621</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1769865816529291</v>
+        <v>0.18003114453618</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2203535991089687</v>
+        <v>0.2235447717157885</v>
       </c>
     </row>
     <row r="36">
@@ -6516,19 +6516,19 @@
         <v>25750</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17419</v>
+        <v>17538</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>35832</v>
+        <v>36815</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04267735048788725</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02886901504958223</v>
+        <v>0.02906746561105332</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.05938683580938419</v>
+        <v>0.06101595749388054</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>31</v>
@@ -6537,19 +6537,19 @@
         <v>32934</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>22940</v>
+        <v>23010</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>45876</v>
+        <v>44721</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.04544795246700727</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.03165572739625843</v>
+        <v>0.03175363059729983</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.06330776623867627</v>
+        <v>0.06171392492624408</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>57</v>
@@ -6558,19 +6558,19 @@
         <v>58684</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>45531</v>
+        <v>44295</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>73755</v>
+        <v>74288</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.04418917290120442</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.03428494927092646</v>
+        <v>0.03335430129212186</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.05553712081469964</v>
+        <v>0.05593875233364237</v>
       </c>
     </row>
     <row r="37">
@@ -6709,19 +6709,19 @@
         <v>60412</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>48631</v>
+        <v>45943</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>75870</v>
+        <v>75004</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2160271284850062</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1739013974003438</v>
+        <v>0.1642885839298264</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2713044295594839</v>
+        <v>0.2682076060572142</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>97</v>
@@ -6730,19 +6730,19 @@
         <v>102911</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>84665</v>
+        <v>85790</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>124221</v>
+        <v>123325</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.09624866595208674</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.07918346479048423</v>
+        <v>0.08023617398617422</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1161792902400745</v>
+        <v>0.1153406322021776</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>153</v>
@@ -6751,19 +6751,19 @@
         <v>163322</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>139336</v>
+        <v>140251</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>187965</v>
+        <v>186060</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1210811858576597</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1032981793648225</v>
+        <v>0.1039767878024117</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1393499610835719</v>
+        <v>0.1379376868001746</v>
       </c>
     </row>
     <row r="40">
@@ -6780,19 +6780,19 @@
         <v>77466</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>63879</v>
+        <v>63809</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>93433</v>
+        <v>94763</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2770131947959931</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2284262398333738</v>
+        <v>0.2281776501252803</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3341089222270323</v>
+        <v>0.3388663451036329</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>253</v>
@@ -6801,19 +6801,19 @@
         <v>273658</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>246479</v>
+        <v>244779</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>304584</v>
+        <v>300285</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2559417246041141</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2305224266125647</v>
+        <v>0.2289324939019467</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2848659303664442</v>
+        <v>0.2808450490294894</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>328</v>
@@ -6822,19 +6822,19 @@
         <v>351124</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>320130</v>
+        <v>319221</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>383103</v>
+        <v>384867</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2603102704337595</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2373327496114319</v>
+        <v>0.2366586560030756</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2840181761789611</v>
+        <v>0.2853259512351518</v>
       </c>
     </row>
     <row r="41">
@@ -6851,19 +6851,19 @@
         <v>98877</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>82231</v>
+        <v>82977</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>115235</v>
+        <v>115177</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3535761260754609</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2940513601901642</v>
+        <v>0.2967197560112814</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4120704016088863</v>
+        <v>0.4118635586706897</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>366</v>
@@ -6872,19 +6872,19 @@
         <v>399367</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>368226</v>
+        <v>367860</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>435713</v>
+        <v>432517</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3735120048215408</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.344387914611048</v>
+        <v>0.3440449304158368</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.4075055174062242</v>
+        <v>0.4045162373904989</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>460</v>
@@ -6893,19 +6893,19 @@
         <v>498243</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>463906</v>
+        <v>464190</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>536592</v>
+        <v>539507</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3693788902755008</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3439226238994233</v>
+        <v>0.344133215822114</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3978096871765361</v>
+        <v>0.3999705871623505</v>
       </c>
     </row>
     <row r="42">
@@ -6922,19 +6922,19 @@
         <v>37867</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>27032</v>
+        <v>26608</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>50105</v>
+        <v>49750</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.135407944680344</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.09666538150746894</v>
+        <v>0.09514832499203332</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1791721187142779</v>
+        <v>0.1779026688846664</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>202</v>
@@ -6943,19 +6943,19 @@
         <v>222230</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>195075</v>
+        <v>196163</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>250688</v>
+        <v>249384</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2078431253628843</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1824465162083593</v>
+        <v>0.1834633477079744</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.234458472074414</v>
+        <v>0.2332392215343055</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>237</v>
@@ -6964,19 +6964,19 @@
         <v>260096</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>230463</v>
+        <v>231655</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>291586</v>
+        <v>291480</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1928258340391741</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1708568423949088</v>
+        <v>0.1717405803757753</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2161707436696491</v>
+        <v>0.2160928266171523</v>
       </c>
     </row>
     <row r="43">
@@ -6993,19 +6993,19 @@
         <v>5027</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>10937</v>
+        <v>11499</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01797560596319582</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.006952951915421144</v>
+        <v>0.00695690496522236</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03910858406315593</v>
+        <v>0.04111978096328556</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>61</v>
@@ -7014,19 +7014,19 @@
         <v>71054</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>55015</v>
+        <v>55623</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>93019</v>
+        <v>89661</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.06645447925937403</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.05145330715858448</v>
+        <v>0.05202224307427312</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.08699752362813909</v>
+        <v>0.08385635790101484</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>66</v>
@@ -7035,19 +7035,19 @@
         <v>76081</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>58622</v>
+        <v>58395</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>95472</v>
+        <v>95176</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.05640381939390589</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.04346030570650403</v>
+        <v>0.04329154062323746</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07077971373094204</v>
+        <v>0.07055962515599042</v>
       </c>
     </row>
     <row r="44">
@@ -7186,19 +7186,19 @@
         <v>562862</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>519409</v>
+        <v>516743</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>610521</v>
+        <v>608041</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1698262695195317</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1567157611660898</v>
+        <v>0.1559112562875944</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1842059133158495</v>
+        <v>0.1834575880227856</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>399</v>
@@ -7207,19 +7207,19 @@
         <v>418920</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>380652</v>
+        <v>381448</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>458154</v>
+        <v>457809</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1205347685653239</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1095239016341665</v>
+        <v>0.1097530783930779</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1318234595751596</v>
+        <v>0.1317240971677916</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>920</v>
@@ -7228,19 +7228,19 @@
         <v>981782</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>926571</v>
+        <v>924546</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1041169</v>
+        <v>1042091</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1445955063260778</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1364640872548131</v>
+        <v>0.1361659220260331</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1533419677932691</v>
+        <v>0.153477736289176</v>
       </c>
     </row>
     <row r="47">
@@ -7257,19 +7257,19 @@
         <v>914995</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>862220</v>
+        <v>867828</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>970709</v>
+        <v>969194</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2760714863822297</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2601481348336281</v>
+        <v>0.2618402331695779</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2928815468494335</v>
+        <v>0.2924244316458471</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>906</v>
@@ -7278,19 +7278,19 @@
         <v>959430</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>907984</v>
+        <v>905448</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1014992</v>
+        <v>1008818</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.2760542510147496</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2612519557744971</v>
+        <v>0.2605223536938889</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.2920409667970023</v>
+        <v>0.2902647959402909</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1778</v>
@@ -7299,19 +7299,19 @@
         <v>1874425</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1799419</v>
+        <v>1796651</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1946841</v>
+        <v>1945560</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2760626641417415</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2650159542627015</v>
+        <v>0.2646083376204847</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.2867280799295095</v>
+        <v>0.2865394222807163</v>
       </c>
     </row>
     <row r="48">
@@ -7328,19 +7328,19 @@
         <v>1141767</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1087602</v>
+        <v>1086244</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1199866</v>
+        <v>1198693</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.3444928464344931</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.3281504245322358</v>
+        <v>0.3277405679299809</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.3620224251187069</v>
+        <v>0.3616686848268327</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1184</v>
@@ -7349,19 +7349,19 @@
         <v>1251533</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>1191405</v>
+        <v>1199847</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1308868</v>
+        <v>1311081</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.3601003187496989</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.3427999391173123</v>
+        <v>0.34522888762799</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.3765973097907039</v>
+        <v>0.3772340827783118</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2282</v>
@@ -7370,19 +7370,19 @@
         <v>2393299</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>2314627</v>
+        <v>2316516</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>2474119</v>
+        <v>2477046</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.3524818187808449</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.3408951068220116</v>
+        <v>0.3411733026091344</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.364384829541988</v>
+        <v>0.3648159458233406</v>
       </c>
     </row>
     <row r="49">
@@ -7399,19 +7399,19 @@
         <v>563421</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>519636</v>
+        <v>519309</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>608175</v>
+        <v>605050</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1699948230390909</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.156784033216098</v>
+        <v>0.156685462557633</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1834978795685382</v>
+        <v>0.1825551602969966</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>626</v>
@@ -7420,19 +7420,19 @@
         <v>669662</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>626777</v>
+        <v>624667</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>720907</v>
+        <v>724200</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1926802482260708</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1803408681705532</v>
+        <v>0.1797338371335327</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.2074248930064296</v>
+        <v>0.2083721577459877</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1162</v>
@@ -7441,19 +7441,19 @@
         <v>1233083</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1171186</v>
+        <v>1170645</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1301898</v>
+        <v>1299451</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1816067760077627</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1724906215769912</v>
+        <v>0.1724110413647886</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1917416954364989</v>
+        <v>0.1913814023223823</v>
       </c>
     </row>
     <row r="50">
@@ -7470,19 +7470,19 @@
         <v>131296</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>108975</v>
+        <v>109679</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>155183</v>
+        <v>154625</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03961457462465461</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.0328799283332423</v>
+        <v>0.03309223734301199</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04682175290025578</v>
+        <v>0.04665338337574638</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>158</v>
@@ -7491,19 +7491,19 @@
         <v>175967</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>151708</v>
+        <v>151190</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>206365</v>
+        <v>204894</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.05063041344415684</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.0436505356635253</v>
+        <v>0.0435015569565343</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.05937677063072436</v>
+        <v>0.05895367811967087</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>288</v>
@@ -7512,19 +7512,19 @@
         <v>307263</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>274106</v>
+        <v>273381</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>345743</v>
+        <v>345853</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.04525323474357296</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.04037000001557779</v>
+        <v>0.04026312728338774</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.05092059069535237</v>
+        <v>0.05093675159426111</v>
       </c>
     </row>
     <row r="51">
@@ -7905,19 +7905,19 @@
         <v>160995</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137694</v>
+        <v>139559</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184677</v>
+        <v>185044</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2927142264068142</v>
+        <v>0.2927142264068143</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2503499496775388</v>
+        <v>0.2537410638896003</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3357721669548889</v>
+        <v>0.3364403876426857</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>156</v>
@@ -7926,19 +7926,19 @@
         <v>113728</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>98600</v>
+        <v>97159</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>131358</v>
+        <v>129411</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2331830629391286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2021654831642686</v>
+        <v>0.1992118158728116</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2693321685844721</v>
+        <v>0.2653391220565595</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>305</v>
@@ -7947,19 +7947,19 @@
         <v>274722</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>247765</v>
+        <v>246024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302688</v>
+        <v>303313</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2647352508166209</v>
+        <v>0.2647352508166208</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2387581501536193</v>
+        <v>0.2370801593681616</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2916841548917156</v>
+        <v>0.292286946739832</v>
       </c>
     </row>
     <row r="5">
@@ -7976,19 +7976,19 @@
         <v>183076</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161200</v>
+        <v>160701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>206908</v>
+        <v>207704</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3328615413882215</v>
+        <v>0.3328615413882217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2930879881398042</v>
+        <v>0.2921798616060636</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3761913770911821</v>
+        <v>0.3776402791587173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>254</v>
@@ -7997,19 +7997,19 @@
         <v>182962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>164880</v>
+        <v>165785</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203494</v>
+        <v>202610</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3751374304756139</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3380644387667008</v>
+        <v>0.3399190648712939</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4172360314534398</v>
+        <v>0.4154231315552877</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>448</v>
@@ -8018,19 +8018,19 @@
         <v>366037</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>339162</v>
+        <v>339491</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>397283</v>
+        <v>396618</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3527307325803598</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3268319927225654</v>
+        <v>0.327149721667981</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3828403815302707</v>
+        <v>0.3821992277925819</v>
       </c>
     </row>
     <row r="6">
@@ -8047,19 +8047,19 @@
         <v>146251</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>125377</v>
+        <v>123013</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>169254</v>
+        <v>167627</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2659078459477539</v>
+        <v>0.265907845947754</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2279562136154905</v>
+        <v>0.2236567314755774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3077320251777869</v>
+        <v>0.3047725188209357</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>180</v>
@@ -8068,19 +8068,19 @@
         <v>125118</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>108311</v>
+        <v>109180</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>142708</v>
+        <v>143110</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2565373946829028</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2220775920008183</v>
+        <v>0.2238575253172401</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2926020720706503</v>
+        <v>0.2934281665438149</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>328</v>
@@ -8089,19 +8089,19 @@
         <v>271369</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>245654</v>
+        <v>243906</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>298558</v>
+        <v>297095</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.2615038395091653</v>
+        <v>0.2615038395091652</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2367238557933025</v>
+        <v>0.2350395762477253</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2877041362541907</v>
+        <v>0.2862944118937246</v>
       </c>
     </row>
     <row r="7">
@@ -8118,19 +8118,19 @@
         <v>49211</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35523</v>
+        <v>35416</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>66266</v>
+        <v>63884</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08947381361979104</v>
+        <v>0.08947381361979105</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06458712482292665</v>
+        <v>0.06439243241226184</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1204819762304324</v>
+        <v>0.1161515499243764</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -8139,19 +8139,19 @@
         <v>55010</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45132</v>
+        <v>43402</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68531</v>
+        <v>68634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1127911138040522</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09253750919537795</v>
+        <v>0.08898952569182564</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1405138622663246</v>
+        <v>0.140725199496783</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>129</v>
@@ -8160,19 +8160,19 @@
         <v>104222</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>87147</v>
+        <v>86702</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>125420</v>
+        <v>123031</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1004326817937481</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08397868491687947</v>
+        <v>0.08355023973148963</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1208600704138733</v>
+        <v>0.1185586370005052</v>
       </c>
     </row>
     <row r="8">
@@ -8189,19 +8189,19 @@
         <v>7694</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3799</v>
+        <v>3735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14431</v>
+        <v>14916</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01398934565937254</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.006907002926373073</v>
+        <v>0.00679093106181815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02623818816278545</v>
+        <v>0.02711929149933259</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -8210,19 +8210,19 @@
         <v>10469</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6311</v>
+        <v>6100</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>17142</v>
+        <v>16965</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02146425096954617</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01293998764821289</v>
+        <v>0.01250737158780377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03514795571058338</v>
+        <v>0.03478511104437183</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -8231,19 +8231,19 @@
         <v>18163</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11809</v>
+        <v>11540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>26937</v>
+        <v>27526</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01750246687236344</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01138014546204482</v>
+        <v>0.01112007570305096</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02595804995555446</v>
+        <v>0.02652554363331208</v>
       </c>
     </row>
     <row r="9">
@@ -8260,19 +8260,19 @@
         <v>2779</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>829</v>
+        <v>852</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7507</v>
+        <v>7730</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.005053226978046546</v>
+        <v>0.005053226978046547</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.001506391391479837</v>
+        <v>0.00154904629451726</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01364936718703732</v>
+        <v>0.01405496937538746</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -8284,7 +8284,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2198</v>
+        <v>2185</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0008867471287562179</v>
@@ -8293,7 +8293,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.004506538914406909</v>
+        <v>0.004480169900200607</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -8302,19 +8302,19 @@
         <v>3212</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8119</v>
+        <v>8445</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.003095028427742642</v>
+        <v>0.003095028427742641</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0008327762877509073</v>
+        <v>0.000831782774024409</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.007824175406675802</v>
+        <v>0.008137756692859882</v>
       </c>
     </row>
     <row r="10">
@@ -8406,19 +8406,19 @@
         <v>129491</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109819</v>
+        <v>109123</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>152475</v>
+        <v>153503</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2689698268031888</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2281080698132734</v>
+        <v>0.2266633483721792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.31671153063284</v>
+        <v>0.3188470037898103</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -8427,19 +8427,19 @@
         <v>92243</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>78567</v>
+        <v>78504</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>107914</v>
+        <v>108782</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.2183288006205408</v>
+        <v>0.2183288006205407</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1859607068814728</v>
+        <v>0.1858108922284244</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2554208044661721</v>
+        <v>0.2574742556001574</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>243</v>
@@ -8448,19 +8448,19 @@
         <v>221733</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>197248</v>
+        <v>197387</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>248293</v>
+        <v>246848</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2453002208265495</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2182123592472282</v>
+        <v>0.2183658752668774</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2746823215833338</v>
+        <v>0.2730835394580576</v>
       </c>
     </row>
     <row r="12">
@@ -8477,19 +8477,19 @@
         <v>189688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>165541</v>
+        <v>167169</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>210785</v>
+        <v>212107</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3940080580396785</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3438504507486327</v>
+        <v>0.3472322383783041</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4378288782694434</v>
+        <v>0.4405757334178476</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>204</v>
@@ -8498,19 +8498,19 @@
         <v>147844</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>129893</v>
+        <v>132650</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>164723</v>
+        <v>165798</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3499298374202569</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3074423174752887</v>
+        <v>0.313967057039927</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3898806957472088</v>
+        <v>0.3924264556015434</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>395</v>
@@ -8519,19 +8519,19 @@
         <v>337532</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>308217</v>
+        <v>310686</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>364447</v>
+        <v>366395</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3734059061312605</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.340975198643568</v>
+        <v>0.3437066998518438</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4031820892144765</v>
+        <v>0.4053365225200837</v>
       </c>
     </row>
     <row r="13">
@@ -8548,19 +8548,19 @@
         <v>128294</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110127</v>
+        <v>109657</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>148011</v>
+        <v>149949</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2664844402096692</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2287484920715536</v>
+        <v>0.2277735904064725</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3074383550305375</v>
+        <v>0.3114640196243422</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>158</v>
@@ -8569,19 +8569,19 @@
         <v>111430</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>95425</v>
+        <v>96358</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>128046</v>
+        <v>128276</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2637416280664204</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2258610603853604</v>
+        <v>0.2280680707407875</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.303070751180507</v>
+        <v>0.3036164248307531</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>293</v>
@@ -8590,19 +8590,19 @@
         <v>239724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>216688</v>
+        <v>215984</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>267266</v>
+        <v>267765</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2652024503371794</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2397185956905871</v>
+        <v>0.2389400436282534</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2956724910001904</v>
+        <v>0.2962237999961079</v>
       </c>
     </row>
     <row r="14">
@@ -8619,19 +8619,19 @@
         <v>27901</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18973</v>
+        <v>18768</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38436</v>
+        <v>38180</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05795362084283542</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.039408498992513</v>
+        <v>0.03898442251015242</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0798364350618261</v>
+        <v>0.07930447606392477</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>75</v>
@@ -8640,19 +8640,19 @@
         <v>53692</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42368</v>
+        <v>42519</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>65686</v>
+        <v>65746</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1270830784102646</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1002808894336956</v>
+        <v>0.1006385706439557</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1554724186322614</v>
+        <v>0.1556147153700585</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -8661,19 +8661,19 @@
         <v>81593</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>66952</v>
+        <v>66981</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>98987</v>
+        <v>98127</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09026471612155862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07406833196332323</v>
+        <v>0.0740997799948888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1095076474259258</v>
+        <v>0.1085558195430054</v>
       </c>
     </row>
     <row r="15">
@@ -8690,19 +8690,19 @@
         <v>6058</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2628</v>
+        <v>2494</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12483</v>
+        <v>12377</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01258405410462814</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.005459368686706354</v>
+        <v>0.005180816254799939</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02592885926563201</v>
+        <v>0.02570771432005262</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -8711,19 +8711,19 @@
         <v>14161</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>8242</v>
+        <v>8249</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>23510</v>
+        <v>22312</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.03351657332148701</v>
+        <v>0.03351657332148702</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01950724277525197</v>
+        <v>0.01952429069773053</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.05564454229547294</v>
+        <v>0.05280969282370607</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>27</v>
@@ -8732,19 +8732,19 @@
         <v>20219</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13179</v>
+        <v>12717</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>29971</v>
+        <v>30487</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02236790959315</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01458006822673459</v>
+        <v>0.01406863079159175</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03315607640070495</v>
+        <v>0.03372711967394963</v>
       </c>
     </row>
     <row r="16">
@@ -8774,19 +8774,19 @@
         <v>3126</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7603</v>
+        <v>8024</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007400082161030268</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.001839370660879012</v>
+        <v>0.001795105774627134</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01799470982596806</v>
+        <v>0.01899144427725145</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -8795,19 +8795,19 @@
         <v>3126</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>767</v>
+        <v>789</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>7552</v>
+        <v>7342</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003458796990301926</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0008489316385494474</v>
+        <v>0.000873278676520652</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.008354403769304517</v>
+        <v>0.00812228361164794</v>
       </c>
     </row>
     <row r="17">
@@ -8899,19 +8899,19 @@
         <v>125351</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105956</v>
+        <v>107253</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147899</v>
+        <v>146900</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2662529979403851</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2250566861648151</v>
+        <v>0.2278131017178378</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3141476495455801</v>
+        <v>0.3120256534367263</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>58</v>
@@ -8920,19 +8920,19 @@
         <v>37385</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28279</v>
+        <v>29090</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46249</v>
+        <v>47710</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1993910299504612</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.150821788103665</v>
+        <v>0.155148512446472</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.24666756536942</v>
+        <v>0.2544554131495446</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>173</v>
@@ -8941,19 +8941,19 @@
         <v>162736</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139653</v>
+        <v>142111</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>187047</v>
+        <v>185397</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2472091350928628</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2121434218927382</v>
+        <v>0.215878442472206</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2841387021777282</v>
+        <v>0.2816332059284576</v>
       </c>
     </row>
     <row r="19">
@@ -8970,19 +8970,19 @@
         <v>195374</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>174326</v>
+        <v>175721</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>219126</v>
+        <v>216568</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.4149874630934458</v>
+        <v>0.4149874630934457</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3702804222951894</v>
+        <v>0.3732438695074044</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4654378256976739</v>
+        <v>0.4600039654753483</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>93</v>
@@ -8991,19 +8991,19 @@
         <v>57825</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47565</v>
+        <v>47433</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69268</v>
+        <v>68604</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3084061022275011</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2536857468909927</v>
+        <v>0.2529825756715749</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3694344980314724</v>
+        <v>0.3658958819474279</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>301</v>
@@ -9012,19 +9012,19 @@
         <v>253200</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>229649</v>
+        <v>229105</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>279617</v>
+        <v>275570</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3846305819029428</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3488558876515981</v>
+        <v>0.3480282599675502</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4247602818948944</v>
+        <v>0.4186135330415414</v>
       </c>
     </row>
     <row r="20">
@@ -9041,19 +9041,19 @@
         <v>105262</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>87155</v>
+        <v>88423</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>124165</v>
+        <v>123554</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2235829452431302</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1851238335305959</v>
+        <v>0.1878169751198677</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2637346542162598</v>
+        <v>0.2624360395467508</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>92</v>
@@ -9062,19 +9062,19 @@
         <v>61835</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>52061</v>
+        <v>50637</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73990</v>
+        <v>73367</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3297903897984877</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2776609412621787</v>
+        <v>0.2700664238936007</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3946206136668152</v>
+        <v>0.3912980230753179</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>210</v>
@@ -9083,19 +9083,19 @@
         <v>167097</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>148794</v>
+        <v>145267</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>191449</v>
+        <v>190535</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2538333262639649</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2260300420343361</v>
+        <v>0.2206728879575652</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2908261598956644</v>
+        <v>0.2894384926809344</v>
       </c>
     </row>
     <row r="21">
@@ -9112,19 +9112,19 @@
         <v>33769</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>23569</v>
+        <v>24360</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>46980</v>
+        <v>46352</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.07172734434478917</v>
+        <v>0.07172734434478918</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05006180152236851</v>
+        <v>0.05174302403070508</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09978895718158805</v>
+        <v>0.09845373536341094</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>37</v>
@@ -9133,19 +9133,19 @@
         <v>24468</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17885</v>
+        <v>17301</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>33501</v>
+        <v>32979</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1304981514402101</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09538936985365039</v>
+        <v>0.0922718851086371</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1786750353762494</v>
+        <v>0.1758887967334198</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>73</v>
@@ -9154,19 +9154,19 @@
         <v>58237</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>46119</v>
+        <v>45116</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>73021</v>
+        <v>72139</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08846665405119884</v>
+        <v>0.08846665405119883</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07005855491917531</v>
+        <v>0.06853431331453792</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1109240856251496</v>
+        <v>0.1095853220146884</v>
       </c>
     </row>
     <row r="22">
@@ -9183,19 +9183,19 @@
         <v>7944</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3099</v>
+        <v>3086</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>16721</v>
+        <v>18066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01687423363167814</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006582481784777036</v>
+        <v>0.006553923468772923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03551660290667895</v>
+        <v>0.03837400081708992</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>9</v>
@@ -9204,19 +9204,19 @@
         <v>5984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2731</v>
+        <v>2934</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10575</v>
+        <v>10784</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03191432658333985</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01456558813816858</v>
+        <v>0.0156455883110559</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05639912563439349</v>
+        <v>0.0575176757715164</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>16</v>
@@ -9225,19 +9225,19 @@
         <v>13928</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>7854</v>
+        <v>8187</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>24772</v>
+        <v>24408</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02115800624555926</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0119304875970715</v>
+        <v>0.01243702074210912</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03763100040327701</v>
+        <v>0.03707746205645261</v>
       </c>
     </row>
     <row r="23">
@@ -9254,19 +9254,19 @@
         <v>3095</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8656</v>
+        <v>9041</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.006575015746571749</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001796778572587037</v>
+        <v>0.001789722666014312</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01838600493402336</v>
+        <v>0.0192035505179914</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>0</v>
@@ -9288,19 +9288,19 @@
         <v>3095</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>637</v>
+        <v>855</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8555</v>
+        <v>9131</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.004702296443471346</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0009682194378307598</v>
+        <v>0.001299183492523853</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01299595438163889</v>
+        <v>0.01387080766042505</v>
       </c>
     </row>
     <row r="24">
@@ -9392,19 +9392,19 @@
         <v>341851</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>308892</v>
+        <v>307565</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>376224</v>
+        <v>374985</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3042264277094516</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2748948755401772</v>
+        <v>0.2737142839347547</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3348167488620435</v>
+        <v>0.3337138046006228</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>283</v>
@@ -9413,19 +9413,19 @@
         <v>203361</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>182146</v>
+        <v>184607</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>225554</v>
+        <v>224455</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2371813682995829</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2124379739640973</v>
+        <v>0.2153087944958493</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2630655305308539</v>
+        <v>0.26178269212982</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>592</v>
@@ -9434,19 +9434,19 @@
         <v>545212</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>506803</v>
+        <v>506567</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>587189</v>
+        <v>586874</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2752094544445375</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2558217508075316</v>
+        <v>0.2557024387601377</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.296398538562832</v>
+        <v>0.2962393065248515</v>
       </c>
     </row>
     <row r="26">
@@ -9463,19 +9463,19 @@
         <v>376655</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>345676</v>
+        <v>341107</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>417326</v>
+        <v>411479</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3352005368417793</v>
+        <v>0.3352005368417794</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3076306266958708</v>
+        <v>0.3035643847611784</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3713946237759925</v>
+        <v>0.3661912682620729</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>428</v>
@@ -9484,19 +9484,19 @@
         <v>297443</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>271763</v>
+        <v>276224</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>321199</v>
+        <v>325007</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3469091576994627</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3169589065343</v>
+        <v>0.3221613294721521</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3746159725292235</v>
+        <v>0.3790579656191456</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>801</v>
@@ -9505,19 +9505,19 @@
         <v>674098</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>628447</v>
+        <v>635146</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>718162</v>
+        <v>718367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3402680055171282</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3172242275515438</v>
+        <v>0.3206059504208673</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3625103802252969</v>
+        <v>0.362614076396131</v>
       </c>
     </row>
     <row r="27">
@@ -9534,19 +9534,19 @@
         <v>286064</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>256981</v>
+        <v>256892</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>316976</v>
+        <v>315191</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2545798131473256</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2286979480321666</v>
+        <v>0.2286187513035238</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2820890847255409</v>
+        <v>0.2805006073939196</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>335</v>
@@ -9555,19 +9555,19 @@
         <v>228633</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>206896</v>
+        <v>205991</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>252753</v>
+        <v>250356</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2666556847082802</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2413045246070808</v>
+        <v>0.2402480214602684</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2947878623603445</v>
+        <v>0.2919916781976849</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>634</v>
@@ -9576,19 +9576,19 @@
         <v>514697</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>475286</v>
+        <v>476059</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>555318</v>
+        <v>551781</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.2598062272234564</v>
+        <v>0.2598062272234563</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2399127071397346</v>
+        <v>0.2403029475304443</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2803107860203698</v>
+        <v>0.2785255447154524</v>
       </c>
     </row>
     <row r="28">
@@ -9605,19 +9605,19 @@
         <v>98583</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>80158</v>
+        <v>80284</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>119762</v>
+        <v>120341</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.08773290838868954</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07133550164189181</v>
+        <v>0.07144807857742684</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1065811131595169</v>
+        <v>0.1070962985523598</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>138</v>
@@ -9626,19 +9626,19 @@
         <v>97672</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>82950</v>
+        <v>82320</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>115982</v>
+        <v>115652</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1139154748939648</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09674449791459029</v>
+        <v>0.0960108399610328</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1352704594783856</v>
+        <v>0.134885754626054</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>242</v>
@@ -9647,19 +9647,19 @@
         <v>196255</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>171000</v>
+        <v>170711</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>222184</v>
+        <v>222854</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.09906467301053695</v>
+        <v>0.09906467301053692</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08631662963499313</v>
+        <v>0.08617089528011812</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1121531624972327</v>
+        <v>0.1124911152855531</v>
       </c>
     </row>
     <row r="29">
@@ -9676,19 +9676,19 @@
         <v>19087</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12403</v>
+        <v>11738</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>28482</v>
+        <v>28450</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01698639372444521</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01103794794007124</v>
+        <v>0.01044618680037164</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0253475604378597</v>
+        <v>0.02531909346385871</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>37</v>
@@ -9697,19 +9697,19 @@
         <v>27964</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>19549</v>
+        <v>19318</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>39796</v>
+        <v>38792</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03261437589689282</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02279969649297905</v>
+        <v>0.02253021225705327</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04641441611898571</v>
+        <v>0.04524286349215088</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>60</v>
@@ -9718,19 +9718,19 @@
         <v>47051</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>35798</v>
+        <v>34926</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60613</v>
+        <v>62020</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.02375015446795076</v>
+        <v>0.02375015446795075</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01807016935258412</v>
+        <v>0.01762994457127444</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03059576153479069</v>
+        <v>0.03130632318304878</v>
       </c>
     </row>
     <row r="30">
@@ -9750,7 +9750,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4067</v>
+        <v>4999</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.001273920188308721</v>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.003619664783825115</v>
+        <v>0.004448923704077692</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>3</v>
@@ -9768,19 +9768,19 @@
         <v>2336</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>7256</v>
+        <v>6837</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.002723938501816569</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0006581231999363995</v>
+        <v>0.0006508949003710374</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.008462684525444223</v>
+        <v>0.007973626350219788</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>5</v>
@@ -9789,19 +9789,19 @@
         <v>3767</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1389</v>
+        <v>1259</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>9434</v>
+        <v>8913</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.001901485336390309</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.0007008851539694962</v>
+        <v>0.000635494997244617</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.004762042023015517</v>
+        <v>0.004499255347699278</v>
       </c>
     </row>
     <row r="31">
@@ -9893,19 +9893,19 @@
         <v>181940</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>156466</v>
+        <v>156365</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>209102</v>
+        <v>207723</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.3212199253605945</v>
+        <v>0.3212199253605946</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2762448758093614</v>
+        <v>0.2760653851045644</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3691738327329154</v>
+        <v>0.3667402021992243</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>258</v>
@@ -9914,19 +9914,19 @@
         <v>181156</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>160513</v>
+        <v>161396</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>202720</v>
+        <v>203070</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.2190843766275795</v>
+        <v>0.2190843766275796</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1941198222207349</v>
+        <v>0.1951882234306271</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2451634714293913</v>
+        <v>0.2455864791082966</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>412</v>
@@ -9935,19 +9935,19 @@
         <v>363096</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>330944</v>
+        <v>332760</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>396983</v>
+        <v>398824</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.2606050851978796</v>
+        <v>0.2606050851978795</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2375285745798476</v>
+        <v>0.2388324272242041</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2849271235161794</v>
+        <v>0.2862482806115779</v>
       </c>
     </row>
     <row r="33">
@@ -9964,19 +9964,19 @@
         <v>156669</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>135698</v>
+        <v>135539</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>179461</v>
+        <v>181097</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.276602833972645</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.239577773156934</v>
+        <v>0.2392980513126175</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.3168432411664212</v>
+        <v>0.3197307241963464</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>465</v>
@@ -9985,19 +9985,19 @@
         <v>297619</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>274527</v>
+        <v>275000</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>320300</v>
+        <v>321103</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.3599314670291537</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.3320048332652353</v>
+        <v>0.3325775004636828</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.3873618968770454</v>
+        <v>0.388332740128602</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>624</v>
@@ -10006,19 +10006,19 @@
         <v>454288</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>420497</v>
+        <v>422450</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>488433</v>
+        <v>488226</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.3260562499120956</v>
+        <v>0.3260562499120955</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.3018035157460157</v>
+        <v>0.3032055573433027</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.3505634399861403</v>
+        <v>0.3504149020550049</v>
       </c>
     </row>
     <row r="34">
@@ -10035,19 +10035,19 @@
         <v>163194</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>140005</v>
+        <v>142073</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>187586</v>
+        <v>188400</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2881237176263704</v>
+        <v>0.2881237176263703</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2471825873405381</v>
+        <v>0.2508330477833152</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3311874534352782</v>
+        <v>0.332624839232901</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>360</v>
@@ -10056,19 +10056,19 @@
         <v>222970</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>203222</v>
+        <v>203587</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>243220</v>
+        <v>243529</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2696537797730437</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2457709187315072</v>
+        <v>0.2462125099514806</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2941431727917169</v>
+        <v>0.2945165516200894</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>522</v>
@@ -10077,19 +10077,19 @@
         <v>386165</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>355454</v>
+        <v>355602</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>419001</v>
+        <v>416342</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2771622811365032</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2551205729987549</v>
+        <v>0.2552268136873132</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3007301020096614</v>
+        <v>0.2988212916939616</v>
       </c>
     </row>
     <row r="35">
@@ -10106,19 +10106,19 @@
         <v>46421</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>34957</v>
+        <v>35915</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>61788</v>
+        <v>61000</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08195789896922562</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06171771194501027</v>
+        <v>0.06340866007183045</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.109088410785018</v>
+        <v>0.1076963954747478</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>151</v>
@@ -10127,19 +10127,19 @@
         <v>94529</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>80893</v>
+        <v>80655</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>111234</v>
+        <v>110736</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1143204397184713</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09782986652909016</v>
+        <v>0.09754198865242664</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1345227254729713</v>
+        <v>0.1339213998094887</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>200</v>
@@ -10148,19 +10148,19 @@
         <v>140950</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>119537</v>
+        <v>120078</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>162527</v>
+        <v>163214</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1011642405330497</v>
+        <v>0.1011642405330496</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08579563744433168</v>
+        <v>0.08618365501129824</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1166504144882681</v>
+        <v>0.1171436567979438</v>
       </c>
     </row>
     <row r="36">
@@ -10177,19 +10177,19 @@
         <v>16781</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10357</v>
+        <v>10057</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>25734</v>
+        <v>25132</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0296265677508751</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01828507760886631</v>
+        <v>0.01775629116926218</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04543341302134127</v>
+        <v>0.04437177268029947</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>43</v>
@@ -10198,19 +10198,19 @@
         <v>27610</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>20517</v>
+        <v>20022</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>36410</v>
+        <v>36616</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.03339107949350097</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.02481277457794631</v>
+        <v>0.0242138781031311</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.04403271720192408</v>
+        <v>0.0442818942046786</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>63</v>
@@ -10219,19 +10219,19 @@
         <v>44391</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>33842</v>
+        <v>33923</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>56189</v>
+        <v>55477</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.03186070934408682</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.02428924185348843</v>
+        <v>0.02434774841591908</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.04032884143024723</v>
+        <v>0.03981774711948654</v>
       </c>
     </row>
     <row r="37">
@@ -10251,7 +10251,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>6875</v>
+        <v>8347</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.002469056320289337</v>
@@ -10260,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01213824918754177</v>
+        <v>0.01473682257753184</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4</v>
@@ -10269,19 +10269,19 @@
         <v>2992</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>923</v>
+        <v>1004</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>8201</v>
+        <v>8091</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.003618857358250818</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.001115965047989234</v>
+        <v>0.001214785672604448</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.009917843531814696</v>
+        <v>0.009784857515724865</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -10290,19 +10290,19 @@
         <v>4391</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1471</v>
+        <v>1534</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>9751</v>
+        <v>11031</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.003151433876385341</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.001055491592929529</v>
+        <v>0.001101339229458451</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0069983888603268</v>
+        <v>0.00791732166253503</v>
       </c>
     </row>
     <row r="38">
@@ -10394,19 +10394,19 @@
         <v>93751</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>70370</v>
+        <v>70954</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>119724</v>
+        <v>116662</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.3951918959217792</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2966335036180885</v>
+        <v>0.2990971535038014</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5046799682493769</v>
+        <v>0.4917712255050208</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>183</v>
@@ -10415,19 +10415,19 @@
         <v>139348</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>119989</v>
+        <v>118714</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>162218</v>
+        <v>163358</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1678048363287982</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1444922788373125</v>
+        <v>0.1429574939564516</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1953446378156498</v>
+        <v>0.1967182866122367</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>227</v>
@@ -10436,19 +10436,19 @@
         <v>233099</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>202723</v>
+        <v>199364</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>269340</v>
+        <v>267011</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.2183295574788142</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1898789113986253</v>
+        <v>0.1867325941217362</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2522743446647482</v>
+        <v>0.2500935765940377</v>
       </c>
     </row>
     <row r="40">
@@ -10465,19 +10465,19 @@
         <v>91698</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>70132</v>
+        <v>70832</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>117245</v>
+        <v>116661</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3865396014304313</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2956323510288943</v>
+        <v>0.2985806757336062</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.4942307926548526</v>
+        <v>0.4917678654102356</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>401</v>
@@ -10486,19 +10486,19 @@
         <v>287596</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>258834</v>
+        <v>262704</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>313020</v>
+        <v>313043</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.3463271422696724</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.311691255543171</v>
+        <v>0.3163512390187893</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3769432564093161</v>
+        <v>0.3769704787967084</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>444</v>
@@ -10507,19 +10507,19 @@
         <v>379294</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>345075</v>
+        <v>345735</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>418776</v>
+        <v>416938</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3552622298225459</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3232112037695626</v>
+        <v>0.3238287863349063</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.392242810844051</v>
+        <v>0.3905205461011981</v>
       </c>
     </row>
     <row r="41">
@@ -10536,19 +10536,19 @@
         <v>42329</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>25610</v>
+        <v>26252</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>64451</v>
+        <v>63974</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1784312138557381</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1079538698840607</v>
+        <v>0.1106612429333588</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2716839446841168</v>
+        <v>0.2696712032648838</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>358</v>
@@ -10557,19 +10557,19 @@
         <v>257625</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>233539</v>
+        <v>230501</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>284953</v>
+        <v>282485</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3102357652298432</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.281231033905035</v>
+        <v>0.2775727211611131</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3431444435331636</v>
+        <v>0.3401717269254165</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>378</v>
@@ -10578,19 +10578,19 @@
         <v>299954</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>265397</v>
+        <v>269798</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>332539</v>
+        <v>333660</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2809491900993155</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2485813993277615</v>
+        <v>0.2527037014179957</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3114693608112685</v>
+        <v>0.3125192196379184</v>
       </c>
     </row>
     <row r="42">
@@ -10607,19 +10607,19 @@
         <v>8525</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1589</v>
+        <v>2417</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22338</v>
+        <v>22401</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.03593646839143037</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.006698883162519407</v>
+        <v>0.01018984919282361</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09416395103312782</v>
+        <v>0.09443023562977261</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>157</v>
@@ -10628,19 +10628,19 @@
         <v>119445</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>101365</v>
+        <v>100387</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>138958</v>
+        <v>140893</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1438375769047977</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1220644327471185</v>
+        <v>0.120887814815482</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.167335134999342</v>
+        <v>0.1696655156529923</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>161</v>
@@ -10649,19 +10649,19 @@
         <v>127970</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>107434</v>
+        <v>105157</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>152161</v>
+        <v>151525</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1198622749277463</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.100627065475981</v>
+        <v>0.09849435929916764</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1425199229155472</v>
+        <v>0.1419246836580399</v>
       </c>
     </row>
     <row r="43">
@@ -10681,7 +10681,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>4792</v>
+        <v>4543</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.003900820400621126</v>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.02019864754274181</v>
+        <v>0.01915021452651884</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>33</v>
@@ -10699,19 +10699,19 @@
         <v>23448</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>16356</v>
+        <v>16531</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>33203</v>
+        <v>34668</v>
       </c>
       <c r="N43" s="6" t="n">
-        <v>0.02823598317301027</v>
+        <v>0.02823598317301026</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01969566615069703</v>
+        <v>0.01990700057758504</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03998318185587151</v>
+        <v>0.04174726024903178</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>34</v>
@@ -10720,19 +10720,19 @@
         <v>24373</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>16872</v>
+        <v>16970</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>36157</v>
+        <v>35118</v>
       </c>
       <c r="U43" s="6" t="n">
-        <v>0.02282878315285062</v>
+        <v>0.02282878315285061</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01580287852121909</v>
+        <v>0.01589492986039614</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.0338664846597598</v>
+        <v>0.03289263834987673</v>
       </c>
     </row>
     <row r="44">
@@ -10762,19 +10762,19 @@
         <v>2955</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1213</v>
+        <v>1041</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>6828</v>
+        <v>6655</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.003558696093878175</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.001460464026838483</v>
+        <v>0.001253690811562789</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.008221781300417137</v>
+        <v>0.008013542147726536</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>5</v>
@@ -10783,19 +10783,19 @@
         <v>2955</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1037</v>
+        <v>1097</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>6960</v>
+        <v>6939</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.002767964518727467</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.0009713456655560029</v>
+        <v>0.001027950318711387</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.006519408001818788</v>
+        <v>0.006499765751729864</v>
       </c>
     </row>
     <row r="45">
@@ -10887,19 +10887,19 @@
         <v>1033377</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>975495</v>
+        <v>973460</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>1100581</v>
+        <v>1098577</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.3013168716452913</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2844391242245358</v>
+        <v>0.2838459241080554</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.3209123324973386</v>
+        <v>0.3203280077729675</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>1066</v>
@@ -10908,19 +10908,19 @@
         <v>767221</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>725043</v>
+        <v>726852</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>811088</v>
+        <v>812591</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2123845785821133</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2007088175821017</v>
+        <v>0.2012094807410318</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2245279543236272</v>
+        <v>0.2249440077936376</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1952</v>
@@ -10929,19 +10929,19 @@
         <v>1800598</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1729713</v>
+        <v>1716745</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1885821</v>
+        <v>1876692</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2556959580724876</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2456298505113735</v>
+        <v>0.2437882346821958</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2677981946597831</v>
+        <v>0.2665017193392681</v>
       </c>
     </row>
     <row r="47">
@@ -10958,19 +10958,19 @@
         <v>1193160</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1127859</v>
+        <v>1128339</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>1255830</v>
+        <v>1256732</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3479071344174212</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.3288661455840836</v>
+        <v>0.3290063606052661</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3661806897135693</v>
+        <v>0.3664437724594864</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>1845</v>
@@ -10979,19 +10979,19 @@
         <v>1271288</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>1222128</v>
+        <v>1220583</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>1320796</v>
+        <v>1325954</v>
       </c>
       <c r="N47" s="6" t="n">
-        <v>0.3519221476580878</v>
+        <v>0.3519221476580879</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3383136082429595</v>
+        <v>0.3378857283726356</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.36562704124694</v>
+        <v>0.3670548330017012</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>3013</v>
@@ -11000,19 +11000,19 @@
         <v>2464449</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>2384219</v>
+        <v>2384725</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>2540136</v>
+        <v>2543167</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3499667751366365</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3385736631998681</v>
+        <v>0.3386455375550552</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3607148386368133</v>
+        <v>0.3611453416769559</v>
       </c>
     </row>
     <row r="48">
@@ -11029,19 +11029,19 @@
         <v>871394</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>820296</v>
+        <v>822160</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>926063</v>
+        <v>930703</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.2540851133790284</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2391857229571758</v>
+        <v>0.2397292848053879</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.270025770972392</v>
+        <v>0.2713785423316202</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>1483</v>
@@ -11050,19 +11050,19 @@
         <v>1007611</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>958114</v>
+        <v>954880</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>1050408</v>
+        <v>1053915</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2789301012406665</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.2652281759269212</v>
+        <v>0.2643331426743554</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2907772563093825</v>
+        <v>0.2917483047040554</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>2365</v>
@@ -11071,19 +11071,19 @@
         <v>1879005</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1808662</v>
+        <v>1806260</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1951682</v>
+        <v>1963126</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2668302142294916</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2568410545944068</v>
+        <v>0.2564999563904194</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.2771507861326255</v>
+        <v>0.278775956986042</v>
       </c>
     </row>
     <row r="49">
@@ -11100,19 +11100,19 @@
         <v>264410</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>230649</v>
+        <v>230687</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>300631</v>
+        <v>296345</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.07709792459926261</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.06725371968677557</v>
+        <v>0.06726489391049077</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.08765928049899868</v>
+        <v>0.08640972735561454</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>637</v>
@@ -11121,19 +11121,19 @@
         <v>444817</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>412851</v>
+        <v>412314</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>482954</v>
+        <v>481565</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1231355706082421</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.114286690231</v>
+        <v>0.114138203272902</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1336929377714293</v>
+        <v>0.1333085121211375</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>911</v>
@@ -11142,19 +11142,19 @@
         <v>709227</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>663041</v>
+        <v>662582</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>758710</v>
+        <v>754680</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1007145367131427</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.09415593959588804</v>
+        <v>0.09409066106837159</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.1077414825477888</v>
+        <v>0.107169128215207</v>
       </c>
     </row>
     <row r="50">
@@ -11171,19 +11171,19 @@
         <v>58490</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>45160</v>
+        <v>45554</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>76661</v>
+        <v>73460</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.01705478718080698</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01316810079687672</v>
+        <v>0.01328290234845131</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02235317514416444</v>
+        <v>0.02141994470556554</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>157</v>
@@ -11192,19 +11192,19 @@
         <v>109635</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>91006</v>
+        <v>93505</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>128428</v>
+        <v>129367</v>
       </c>
       <c r="N50" s="6" t="n">
-        <v>0.0303494439734866</v>
+        <v>0.03034944397348661</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.02519266802567398</v>
+        <v>0.0258842469853551</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03555172971220917</v>
+        <v>0.03581192560978546</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>224</v>
@@ -11213,19 +11213,19 @@
         <v>168125</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>147536</v>
+        <v>148038</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>193337</v>
+        <v>191663</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02387474388751255</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.02095104109987852</v>
+        <v>0.02102231359119493</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.0274550090677375</v>
+        <v>0.02721730969196401</v>
       </c>
     </row>
     <row r="51">
@@ -11242,19 +11242,19 @@
         <v>8705</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>4056</v>
+        <v>4247</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>16095</v>
+        <v>16641</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.002538168778189582</v>
+        <v>0.002538168778189581</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.001182627435428717</v>
+        <v>0.001238486797577744</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.004693031602502384</v>
+        <v>0.00485225075260823</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>17</v>
@@ -11263,19 +11263,19 @@
         <v>11842</v>
       </c>
       <c r="L51" s="5" t="n">
-        <v>6795</v>
+        <v>6667</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>18897</v>
+        <v>19081</v>
       </c>
       <c r="N51" s="6" t="n">
-        <v>0.003278157937403566</v>
+        <v>0.003278157937403567</v>
       </c>
       <c r="O51" s="6" t="n">
-        <v>0.001880928271040618</v>
+        <v>0.001845494317263576</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.00523106490359194</v>
+        <v>0.005282051559402379</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>26</v>
@@ -11284,19 +11284,19 @@
         <v>20547</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>13361</v>
+        <v>13584</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>30357</v>
+        <v>30201</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.002917771960729026</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.00189729826900466</v>
+        <v>0.001929032164180004</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.004310834687189029</v>
+        <v>0.00428868743285514</v>
       </c>
     </row>
     <row r="52">
